--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -566,7 +566,7 @@
     <t>應填入所綁定值集中適合的代碼，確定無適合的代碼才可以使用其他值集的代碼來表示。</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/loinc-type-doc-code</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -591,7 +591,7 @@
     <t>幫助人類在檢視composition或規範文件時評估composition是否感興趣。</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/loinc-document-classcodes</t>
   </si>
   <si>
     <t>Composition.subject</t>
@@ -815,7 +815,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/PractitionerRole-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Patient-twcore|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/PractitionerRole-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Patient-twcore|Device|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/RelatedPerson-twcore)
 </t>
   </si>
   <si>
@@ -987,7 +987,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Patient-twcore|RelatedPerson|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/PractitionerRole-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore)
+    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Patient-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/RelatedPerson-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/PractitionerRole-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore)
 </t>
   </si>
   <si>
@@ -1271,7 +1271,7 @@
     <t>提供給文件中主題的標籤是標準化的，並且可以被電腦程式識別和處理。</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/loinc-doc-section-code</t>
   </si>
   <si>
     <t>Composition.section.author</t>

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC Composition Referral</t>
+    <t>長期照護管理中心個案服務初篩表/轉介單文件架構</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>長期照護管理中心個案服務初篩表/轉介單文件架構，用以表述長期照護管理中心個案服務初篩表/轉介單的文件結構。</t>
+    <t>此 Composition 以臺北市長期照顧管理中心個案服務初篩表/轉介單為基礎，用以表述長期照顧管理中心個案服務初篩表/轉介單的文件結構。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2626,15 +2626,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.41015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2645,27 +2645,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.62109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.9296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="51.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="64.73046875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2626,15 +2626,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2645,27 +2645,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.9296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.71875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.97265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="51.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="64.73046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -705,7 +705,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCCompositionReferral.xlsx
+++ b/docs/StructureDefinition-LTCCompositionReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1552,7 +1552,7 @@
     <t>Composition.section:condition-disability.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCConditionDisability|http://ltc-ig.fhir.tw/StructureDefinition/LTCConditionDisabilityType|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Condition-twcore)
+    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCConditionDisability|http://ltc-ig.fhir.tw/StructureDefinition/LTCConditionDisabilityType)
 </t>
   </si>
   <si>
@@ -1982,7 +1982,7 @@
     <t>Composition.section:questionnaire-adl.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseADL|http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponse)
+    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseADL)
 </t>
   </si>
   <si>
@@ -2034,7 +2034,7 @@
     <t>Composition.section:questionnaire-iadl.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseIADL|http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponse)
+    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseIADL)
 </t>
   </si>
   <si>
@@ -2086,7 +2086,7 @@
     <t>Composition.section:questionnaire-sof.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseReferralSOF|http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponse)
+    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseReferralSOF)
 </t>
   </si>
   <si>
@@ -2138,7 +2138,7 @@
     <t>Composition.section:questionnaire-caregiver.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseReferralCaregiver|http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponse)
+    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseReferralCaregiver)
 </t>
   </si>
   <si>
@@ -2241,7 +2241,7 @@
     <t>Composition.section:practitioner.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCPractitioner|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore)
+    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/LTCPractitioner)
 </t>
   </si>
   <si>
@@ -2293,7 +2293,7 @@
     <t>Composition.section:organization.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/Organization-twltc|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore)
+    <t xml:space="preserve">Reference(http://ltc-ig.fhir.tw/StructureDefinition/Organization-twltc)
 </t>
   </si>
   <si>
